--- a/Examenes/Examen_Ordinario/Calificacion_Examen_Ordinario_Grupo_43.xlsx
+++ b/Examenes/Examen_Ordinario/Calificacion_Examen_Ordinario_Grupo_43.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gusto\OneDrive\Documentos\Cursos_UVM\Plan PU\Fisica_3\Examenes\Examen_Ordinario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3948F84-FA53-41B2-987A-833429A84400}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD764698-0F16-4CF4-B346-E05C88E05621}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{409B138E-48ED-42C2-90B0-A14B637DB509}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{409B138E-48ED-42C2-90B0-A14B637DB509}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Primer Examen" sheetId="1" r:id="rId1"/>
+    <sheet name="Segundo Examen" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$AT$15</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Primer Examen'!$A$1:$AT$15</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="65">
   <si>
     <t>Alumno</t>
   </si>
@@ -222,6 +223,18 @@
   </si>
   <si>
     <t>g</t>
+  </si>
+  <si>
+    <t>Examen</t>
+  </si>
+  <si>
+    <t>Calif. Ciclo</t>
+  </si>
+  <si>
+    <t>Promedio</t>
+  </si>
+  <si>
+    <t>Situación</t>
   </si>
 </sst>
 </file>
@@ -280,7 +293,18 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -612,11 +636,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1A5D698-CFD0-4451-8763-4CE6DE13E3BB}">
   <dimension ref="A1:AT15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4110" ySplit="600" topLeftCell="AK1" activePane="bottomRight"/>
-      <selection pane="topRight" activeCell="AI1" sqref="AI1"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="AS9" sqref="AS9"/>
+    <sheetView topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:AT1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2758,4 +2779,1100 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75EB1083-2E63-4C35-BCA3-38DE3246A05E}">
+  <dimension ref="A1:AX7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="AK1" workbookViewId="0">
+      <selection activeCell="AW4" sqref="AW4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="35.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="44" width="4.7109375" style="1" customWidth="1"/>
+    <col min="45" max="45" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="47" max="48" width="11.42578125" style="1"/>
+    <col min="49" max="49" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="11.42578125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1">
+        <v>1</v>
+      </c>
+      <c r="I2" s="1">
+        <v>1</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="K2" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="L2" s="1">
+        <v>0</v>
+      </c>
+      <c r="M2" s="1">
+        <v>1</v>
+      </c>
+      <c r="N2" s="1">
+        <v>1</v>
+      </c>
+      <c r="O2" s="1">
+        <v>1</v>
+      </c>
+      <c r="P2" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="R2" s="1">
+        <v>0</v>
+      </c>
+      <c r="S2" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="T2" s="1">
+        <v>1</v>
+      </c>
+      <c r="U2" s="1">
+        <v>1</v>
+      </c>
+      <c r="V2" s="1">
+        <v>1</v>
+      </c>
+      <c r="W2" s="1">
+        <v>0</v>
+      </c>
+      <c r="X2" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ2" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="AK2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AM2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AN2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AO2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AQ2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AR2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AS2" s="1">
+        <f>SUM(B2:AR2)</f>
+        <v>29</v>
+      </c>
+      <c r="AT2" s="3">
+        <f>(AS2/43)*10</f>
+        <v>6.7441860465116275</v>
+      </c>
+      <c r="AU2" s="1">
+        <v>5.27</v>
+      </c>
+      <c r="AV2" s="3">
+        <f>AVERAGE(AT2:AU2)</f>
+        <v>6.0070930232558135</v>
+      </c>
+      <c r="AW2" s="1" t="str">
+        <f>IF(AV2&gt;=6,"Acreditado","Extraordinario")</f>
+        <v>Acreditado</v>
+      </c>
+    </row>
+    <row r="3" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="K3" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="L3" s="1">
+        <v>1</v>
+      </c>
+      <c r="M3" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="N3" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="O3" s="1">
+        <v>1</v>
+      </c>
+      <c r="P3" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="R3" s="1">
+        <v>1</v>
+      </c>
+      <c r="S3" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="T3" s="1">
+        <v>1</v>
+      </c>
+      <c r="U3" s="1">
+        <v>1</v>
+      </c>
+      <c r="V3" s="1">
+        <v>1</v>
+      </c>
+      <c r="W3" s="1">
+        <v>1</v>
+      </c>
+      <c r="X3" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y3" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z3" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD3" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE3" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF3" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH3" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI3" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AJ3" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AK3" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL3" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AM3" s="1">
+        <v>1</v>
+      </c>
+      <c r="AN3" s="1">
+        <v>1</v>
+      </c>
+      <c r="AO3" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP3" s="1">
+        <v>1</v>
+      </c>
+      <c r="AQ3" s="1">
+        <v>1</v>
+      </c>
+      <c r="AR3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS3" s="1">
+        <f t="shared" ref="AS3:AS7" si="0">SUM(B3:AR3)</f>
+        <v>30.5</v>
+      </c>
+      <c r="AT3" s="3">
+        <f t="shared" ref="AT3:AT7" si="1">(AS3/43)*10</f>
+        <v>7.0930232558139537</v>
+      </c>
+      <c r="AU3" s="1">
+        <v>5.42</v>
+      </c>
+      <c r="AV3" s="3">
+        <f t="shared" ref="AV3:AV7" si="2">AVERAGE(AT3:AU3)</f>
+        <v>6.2565116279069768</v>
+      </c>
+      <c r="AW3" s="1" t="str">
+        <f t="shared" ref="AW3:AW7" si="3">IF(AV3&gt;=6,"Acreditado","Extraordinario")</f>
+        <v>Acreditado</v>
+      </c>
+    </row>
+    <row r="4" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1">
+        <v>1</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="L4" s="1">
+        <v>1</v>
+      </c>
+      <c r="M4" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>0</v>
+      </c>
+      <c r="P4" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>0</v>
+      </c>
+      <c r="R4" s="1">
+        <v>0</v>
+      </c>
+      <c r="S4" s="1">
+        <v>0</v>
+      </c>
+      <c r="T4" s="1">
+        <v>0</v>
+      </c>
+      <c r="U4" s="1">
+        <v>0</v>
+      </c>
+      <c r="V4" s="1">
+        <v>0</v>
+      </c>
+      <c r="W4" s="1">
+        <v>1</v>
+      </c>
+      <c r="X4" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="1">
+        <v>0.66</v>
+      </c>
+      <c r="AB4" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC4" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD4" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF4" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH4" s="1">
+        <v>0.33</v>
+      </c>
+      <c r="AI4" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ4" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="AK4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL4" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AM4" s="1">
+        <v>0.66</v>
+      </c>
+      <c r="AN4" s="1">
+        <v>1</v>
+      </c>
+      <c r="AO4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS4" s="1">
+        <f t="shared" si="0"/>
+        <v>16.899999999999999</v>
+      </c>
+      <c r="AT4" s="3">
+        <f t="shared" si="1"/>
+        <v>3.9302325581395348</v>
+      </c>
+      <c r="AU4" s="1">
+        <v>6.28</v>
+      </c>
+      <c r="AV4" s="3">
+        <f t="shared" si="2"/>
+        <v>5.1051162790697671</v>
+      </c>
+      <c r="AW4" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>Extraordinario</v>
+      </c>
+    </row>
+    <row r="5" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="L5" s="1">
+        <v>1</v>
+      </c>
+      <c r="M5" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="N5" s="1">
+        <v>1</v>
+      </c>
+      <c r="O5" s="1">
+        <v>1</v>
+      </c>
+      <c r="P5" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="R5" s="1">
+        <v>1</v>
+      </c>
+      <c r="S5" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="T5" s="1">
+        <v>1</v>
+      </c>
+      <c r="U5" s="1">
+        <v>1</v>
+      </c>
+      <c r="V5" s="1">
+        <v>1</v>
+      </c>
+      <c r="W5" s="1">
+        <v>1</v>
+      </c>
+      <c r="X5" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y5" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ5" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="AK5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL5" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AM5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AN5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AO5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AQ5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AR5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS5" s="1">
+        <f t="shared" si="0"/>
+        <v>31.5</v>
+      </c>
+      <c r="AT5" s="3">
+        <f t="shared" si="1"/>
+        <v>7.3255813953488369</v>
+      </c>
+      <c r="AU5" s="1">
+        <v>5.1100000000000003</v>
+      </c>
+      <c r="AV5" s="3">
+        <f t="shared" si="2"/>
+        <v>6.2177906976744186</v>
+      </c>
+      <c r="AW5" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>Acreditado</v>
+      </c>
+    </row>
+    <row r="6" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1</v>
+      </c>
+      <c r="I6" s="1">
+        <v>1</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="K6" s="1">
+        <v>1</v>
+      </c>
+      <c r="L6" s="1">
+        <v>0</v>
+      </c>
+      <c r="M6" s="1">
+        <v>1</v>
+      </c>
+      <c r="N6" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="O6" s="1">
+        <v>1</v>
+      </c>
+      <c r="P6" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="R6" s="1">
+        <v>1</v>
+      </c>
+      <c r="S6" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="T6" s="1">
+        <v>1</v>
+      </c>
+      <c r="U6" s="1">
+        <v>1</v>
+      </c>
+      <c r="V6" s="1">
+        <v>0</v>
+      </c>
+      <c r="W6" s="1">
+        <v>1</v>
+      </c>
+      <c r="X6" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF6" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH6" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM6" s="1">
+        <v>1</v>
+      </c>
+      <c r="AN6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO6" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ6" s="1">
+        <v>1</v>
+      </c>
+      <c r="AR6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS6" s="1">
+        <f t="shared" si="0"/>
+        <v>24.05</v>
+      </c>
+      <c r="AT6" s="3">
+        <f t="shared" si="1"/>
+        <v>5.5930232558139537</v>
+      </c>
+      <c r="AU6" s="1">
+        <v>6.81</v>
+      </c>
+      <c r="AV6" s="3">
+        <f t="shared" si="2"/>
+        <v>6.2015116279069762</v>
+      </c>
+      <c r="AW6" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>Acreditado</v>
+      </c>
+    </row>
+    <row r="7" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1</v>
+      </c>
+      <c r="H7" s="1">
+        <v>1</v>
+      </c>
+      <c r="I7" s="1">
+        <v>1</v>
+      </c>
+      <c r="J7" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="K7" s="1">
+        <v>1</v>
+      </c>
+      <c r="L7" s="1">
+        <v>1</v>
+      </c>
+      <c r="M7" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>1</v>
+      </c>
+      <c r="P7" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>1</v>
+      </c>
+      <c r="R7" s="1">
+        <v>1</v>
+      </c>
+      <c r="S7" s="1">
+        <v>0</v>
+      </c>
+      <c r="T7" s="1">
+        <v>1</v>
+      </c>
+      <c r="U7" s="1">
+        <v>1</v>
+      </c>
+      <c r="V7" s="1">
+        <v>1</v>
+      </c>
+      <c r="W7" s="1">
+        <v>1</v>
+      </c>
+      <c r="X7" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y7" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z7" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC7" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG7" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI7" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ7" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AK7" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL7" s="1">
+        <v>1</v>
+      </c>
+      <c r="AM7" s="1">
+        <v>1</v>
+      </c>
+      <c r="AN7" s="1">
+        <v>1</v>
+      </c>
+      <c r="AO7" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP7" s="1">
+        <v>1</v>
+      </c>
+      <c r="AQ7" s="1">
+        <v>1</v>
+      </c>
+      <c r="AR7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS7" s="1">
+        <f t="shared" si="0"/>
+        <v>34.049999999999997</v>
+      </c>
+      <c r="AT7" s="3">
+        <f t="shared" si="1"/>
+        <v>7.9186046511627906</v>
+      </c>
+      <c r="AU7" s="1">
+        <v>5.93</v>
+      </c>
+      <c r="AV7" s="3">
+        <f t="shared" si="2"/>
+        <v>6.9243023255813956</v>
+      </c>
+      <c r="AW7" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>Acreditado</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="AV2:AV7">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+      <formula>5.9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>